--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adria\Documents\.Workspace_Adrian_Java\Vokabeltrainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7759CB-CB92-42BE-8D91-DD849B547D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4C5FD4-CAA5-426F-8AFF-CC9C71A128B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -826,7 +826,9 @@
       <c r="E4" s="14">
         <v>13</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
@@ -851,7 +853,9 @@
       <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
       <c r="I5" s="14"/>
@@ -876,7 +880,9 @@
       <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="14"/>
@@ -901,7 +907,9 @@
       <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="14"/>
@@ -926,7 +934,9 @@
       <c r="E8" s="14">
         <v>3</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="I8" s="14"/>
@@ -951,7 +961,9 @@
       <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="14"/>
@@ -1000,7 +1012,9 @@
       <c r="E11" s="14">
         <v>8</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11" s="14"/>
@@ -1025,7 +1039,9 @@
       <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="14"/>
@@ -1050,7 +1066,9 @@
       <c r="E13" s="14">
         <v>3</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13" s="14"/>
@@ -1075,7 +1093,9 @@
       <c r="E14" s="14">
         <v>5</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="14"/>
@@ -1100,7 +1120,9 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="I15" s="14"/>
@@ -1125,7 +1147,9 @@
       <c r="E16" s="14">
         <v>2</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="14"/>
@@ -1150,7 +1174,9 @@
       <c r="E17" s="14">
         <v>8</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="14"/>
@@ -1175,7 +1201,9 @@
       <c r="E18" s="14">
         <v>5</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
@@ -1200,7 +1228,9 @@
       <c r="E19" s="14">
         <v>5</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="14"/>
@@ -1225,7 +1255,9 @@
       <c r="E20" s="14">
         <v>3</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="14"/>
